--- a/Documents/Chris O'Brien - Weeklog/O'BrienChrisWeeklogs.xlsx
+++ b/Documents/Chris O'Brien - Weeklog/O'BrienChrisWeeklogs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guptap\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\co4008\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{677E9C45-986C-4B2B-8226-2217FDF66C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA771127-7AC3-4036-BAFE-21B1EEE31CD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A47C9AD-3224-4FE7-92C3-83B8E832F584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="861" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="861" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="14" r:id="rId1"/>
     <sheet name="Jan 26-Feb 2" sheetId="1" r:id="rId2"/>
-    <sheet name="Jan 29-Feb 4" sheetId="2" r:id="rId3"/>
+    <sheet name="Feb 2-Feb 9" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Add a tab for the new week</t>
   </si>
@@ -86,9 +86,21 @@
     <t>Total number of hours worked during the week.</t>
   </si>
   <si>
-    <t>1.
-2.
-3.
+    <t>2/3/2026, 2/8,2026</t>
+  </si>
+  <si>
+    <t>1,1 respectfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS Document </t>
+  </si>
+  <si>
+    <t>Requirements (3.2.1, 3.2.2, 3.2.4, and 3.2.8).  User stories (REQ1-4).</t>
+  </si>
+  <si>
+    <t>1. Firstly, created the first four user stories that defined lessons, interfacing, and the IDE
+2. Then used those user stories to define my requirements within the document.
+3. Additionally, sectioned off future sections for the group in order to better plan out the document. 
 4.</t>
   </si>
 </sst>
@@ -96,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +191,51 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -187,51 +244,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,17 +534,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -546,232 +558,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4"/>
-    </row>
-    <row r="2" spans="1:25" ht="21.95" thickTop="1" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="19"/>
+    </row>
+    <row r="2" spans="1:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
       <c r="N2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="7"/>
-    </row>
-    <row r="3" spans="1:25" ht="21.95" thickTop="1" thickBot="1">
-      <c r="A3" s="8" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="5" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" ht="21.95" thickTop="1" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="1:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="17" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="5" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" ht="162" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+    </row>
+    <row r="6" spans="1:25" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16"/>
-    </row>
-    <row r="7" spans="1:25" ht="21.95" thickTop="1" thickBot="1">
-      <c r="A7" s="8" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8">
         <v>1</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" ht="15" thickTop="1"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N2:Y2"/>
+    <mergeCell ref="N3:Y3"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:M7"/>
@@ -780,12 +798,6 @@
     <mergeCell ref="N6:Y6"/>
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N2:Y2"/>
-    <mergeCell ref="N3:Y3"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -796,220 +808,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4"/>
-    </row>
-    <row r="2" spans="1:25" ht="21.95" thickTop="1" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="19"/>
+    </row>
+    <row r="2" spans="1:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="7"/>
-    </row>
-    <row r="3" spans="1:25" ht="21.95" thickTop="1" thickBot="1">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" ht="21.95" thickTop="1" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="1:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="17" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" ht="162" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+    </row>
+    <row r="6" spans="1:25" ht="162" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16"/>
-    </row>
-    <row r="7" spans="1:25" ht="21.95" thickTop="1" thickBot="1">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" ht="15" thickTop="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="8">
+        <v>2</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:Y2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="N3:Y3"/>
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="N7:Y7"/>
     <mergeCell ref="A4:M4"/>
@@ -1018,12 +1048,6 @@
     <mergeCell ref="N5:Y5"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="N6:Y6"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:Y2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="N3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
